--- a/DongAERP/Content/Report/ReportHS/ReportHSTotalHS.xlsx
+++ b/DongAERP/Content/Report/ReportHS/ReportHSTotalHS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DongAERP\DongAERP\Content\Report\ReportHS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BD65E2-D161-4943-B182-59465CFB49EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EB8030-E51A-4848-8B09-6D1C4C88E25D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FDADBC8A-6B6C-45FD-98E5-87326587A42E}"/>
   </bookViews>
@@ -41,10 +41,10 @@
     <t>Đến:</t>
   </si>
   <si>
-    <t>BÁO CÁO TỔNG HỢP - TỔNG DOANH SỐ CHI TRẢ</t>
+    <t>Tổng Hồ sơ chi trả</t>
   </si>
   <si>
-    <t>Tổng doanh số chi trả</t>
+    <t>BÁO CÁO TỔNG HỢP - TỔNG HỒ SƠ CHI TRẢ</t>
   </si>
 </sst>
 </file>
@@ -444,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3B6D35-F82E-4989-A479-5B01F28891A5}">
   <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,7 +460,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -524,7 +524,7 @@
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="P7" s="4"/>
       <c r="Q7" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
